--- a/biology/Botanique/Clavulina_cristata/Clavulina_cristata.xlsx
+++ b/biology/Botanique/Clavulina_cristata/Clavulina_cristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavulina cristata
 Clavulina cristata, de son nom vernaculaire la clavaire à crêtes, est une espèce de champignons agaricomycètes de la famille des Clavulinaceae, du genre Clavulina.
@@ -512,24 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Clavulina cristata (Holmskjold 1790) J. Schröter 1889[1]
-Basionyme
-Clavaria coralloides L. 1753[2]
-Synonymes
-Clavaria cristata (Holmsk. 1790) Pers. 1800[3]
-Clavulina coralloides f. cristata (Holmsk.) Franchi &amp; M. Marchetti 2000[4]
-Clavulina coralloides f. subrugosa (Corner) Franchi &amp; M. Marchetti 2000[5]
-Clavulina cristata (Holmsk.) J. Schröt. 1888[6]
-Clavulina cristata f. subcinerea[7]
-Clavulina cristata var. coralloides Corner 1950[8]
-Clavulina cristata var. incarnata Corner 1950[9]
-Clavulina cristata var. lappa P. Karst 1882[10]
-Clavulina cristata var. subrugosa Corner 1950[11]
-Clavaria elegans Bolton, 1790[12]
-Ramaria cristata Holmsk. 1790[13]
-Stichoramaria cristata (Holmsk.) Ulbr. 1928[14]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Clavulina cristata (Holmskjold 1790) J. Schröter 1889</t>
         </is>
       </c>
     </row>
@@ -554,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitats</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sur le sol à terre ou sur du bois pourrissant, forêts feuillues essentiellement.
-</t>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clavaria coralloides L. 1753</t>
         </is>
       </c>
     </row>
@@ -585,10 +589,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Clavaria cristata (Holmsk. 1790) Pers. 1800
+Clavulina coralloides f. cristata (Holmsk.) Franchi &amp; M. Marchetti 2000
+Clavulina coralloides f. subrugosa (Corner) Franchi &amp; M. Marchetti 2000
+Clavulina cristata (Holmsk.) J. Schröt. 1888
+Clavulina cristata f. subcinerea
+Clavulina cristata var. coralloides Corner 1950
+Clavulina cristata var. incarnata Corner 1950
+Clavulina cristata var. lappa P. Karst 1882
+Clavulina cristata var. subrugosa Corner 1950
+Clavaria elegans Bolton, 1790
+Ramaria cristata Holmsk. 1790
+Stichoramaria cristata (Holmsk.) Ulbr. 1928</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clavulina_cristata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavulina_cristata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Habitats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le sol à terre ou sur du bois pourrissant, forêts feuillues essentiellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clavulina_cristata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavulina_cristata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, Afrique du Nord.
 </t>
